--- a/天龍國小.xlsx
+++ b/天龍國小.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="3年1班" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="3年2班" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -489,52 +489,52 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>91</v>
-      </c>
-      <c r="C2" t="n">
-        <v>88</v>
+      <c r="B2" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>56</v>
       </c>
       <c r="D2" t="n">
-        <v>83</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>99</v>
+        <v>67</v>
+      </c>
+      <c r="E2" t="n">
+        <v>66</v>
       </c>
       <c r="F2" t="n">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="G2" t="n">
-        <v>449</v>
+        <v>328</v>
       </c>
       <c r="H2" t="n">
-        <v>89.8</v>
+        <v>65.59999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>86</v>
+      <c r="B3" s="3" t="n">
+        <v>55</v>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
-      </c>
-      <c r="D3" t="n">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="F3" t="n">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>52</v>
       </c>
       <c r="G3" t="n">
-        <v>385</v>
-      </c>
-      <c r="H3" t="n">
-        <v>77</v>
+        <v>295</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -542,51 +542,51 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>90</v>
-      </c>
-      <c r="C4" t="n">
-        <v>72</v>
+        <v>62</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>94</v>
       </c>
       <c r="E4" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G4" t="n">
-        <v>395</v>
+        <v>337</v>
       </c>
       <c r="H4" t="n">
-        <v>79</v>
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>91</v>
+      <c r="B5" t="n">
+        <v>78</v>
       </c>
       <c r="C5" t="n">
-        <v>80</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>59</v>
+        <v>83</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>94</v>
       </c>
       <c r="E5" t="n">
-        <v>89</v>
-      </c>
-      <c r="F5" t="n">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>54</v>
       </c>
       <c r="G5" t="n">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="H5" t="n">
-        <v>78.59999999999999</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="6">
@@ -594,51 +594,51 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>91</v>
+        <v>65</v>
+      </c>
+      <c r="C6" t="n">
+        <v>67</v>
       </c>
       <c r="D6" t="n">
-        <v>81</v>
-      </c>
-      <c r="E6" t="n">
-        <v>69</v>
+        <v>89</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>95</v>
       </c>
       <c r="F6" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G6" t="n">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="H6" t="n">
-        <v>74.40000000000001</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="n">
-        <v>53</v>
-      </c>
-      <c r="C7" t="n">
-        <v>83</v>
-      </c>
-      <c r="D7" t="n">
-        <v>83</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="F7" t="n">
-        <v>86</v>
+      <c r="B7" t="n">
+        <v>66</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>76</v>
       </c>
       <c r="G7" t="n">
-        <v>396</v>
+        <v>312</v>
       </c>
       <c r="H7" t="n">
-        <v>79.2</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="8">
@@ -646,51 +646,51 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C8" t="n">
-        <v>76</v>
-      </c>
-      <c r="D8" t="n">
-        <v>61</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="E8" t="n">
+        <v>66</v>
       </c>
       <c r="F8" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G8" t="n">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="H8" t="n">
-        <v>75.59999999999999</v>
+        <v>82.59999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="n">
-        <v>56</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>96</v>
+      <c r="B9" t="n">
+        <v>78</v>
+      </c>
+      <c r="C9" t="n">
+        <v>81</v>
       </c>
       <c r="D9" t="n">
-        <v>73</v>
-      </c>
-      <c r="E9" t="n">
         <v>61</v>
       </c>
+      <c r="E9" s="2" t="n">
+        <v>83</v>
+      </c>
       <c r="F9" t="n">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="G9" t="n">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H9" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -698,25 +698,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C10" t="n">
-        <v>78</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>53</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>97</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>55</v>
+        <v>82</v>
+      </c>
+      <c r="D10" t="n">
+        <v>68</v>
+      </c>
+      <c r="E10" t="n">
+        <v>68</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>96</v>
       </c>
       <c r="G10" t="n">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="H10" t="n">
-        <v>69.40000000000001</v>
+        <v>77.40000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -724,103 +724,103 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D11" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E11" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F11" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G11" t="n">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="H11" t="n">
-        <v>76.2</v>
+        <v>80.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="n">
-        <v>54</v>
+      <c r="B12" t="n">
+        <v>77</v>
       </c>
       <c r="C12" t="n">
-        <v>67</v>
-      </c>
-      <c r="D12" t="n">
-        <v>85</v>
-      </c>
-      <c r="E12" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="E12" t="n">
+        <v>88</v>
+      </c>
+      <c r="F12" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="F12" t="n">
-        <v>70</v>
-      </c>
       <c r="G12" t="n">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="H12" t="n">
-        <v>73.8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
-        <v>65</v>
+      <c r="B13" s="3" t="n">
+        <v>59</v>
       </c>
       <c r="C13" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D13" t="n">
         <v>82</v>
       </c>
-      <c r="E13" t="n">
-        <v>86</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>93</v>
+      <c r="E13" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="F13" t="n">
+        <v>78</v>
       </c>
       <c r="G13" t="n">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="H13" t="n">
-        <v>82.59999999999999</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>99</v>
+      <c r="B14" s="3" t="n">
+        <v>52</v>
       </c>
       <c r="C14" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D14" t="n">
-        <v>75</v>
-      </c>
-      <c r="E14" t="n">
-        <v>66</v>
-      </c>
-      <c r="F14" t="n">
-        <v>90</v>
+        <v>83</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>96</v>
       </c>
       <c r="G14" t="n">
-        <v>410</v>
+        <v>358</v>
       </c>
       <c r="H14" t="n">
-        <v>82</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -828,25 +828,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>65</v>
-      </c>
-      <c r="C15" t="n">
-        <v>79</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>98</v>
+        <v>87</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>57</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>51</v>
-      </c>
-      <c r="F15" t="n">
-        <v>84</v>
+        <v>52</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>93</v>
       </c>
       <c r="G15" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="H15" t="n">
-        <v>75.40000000000001</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -854,25 +854,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>73</v>
-      </c>
-      <c r="C16" t="n">
-        <v>62</v>
+        <v>89</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>50</v>
       </c>
       <c r="D16" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F16" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G16" t="n">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="H16" t="n">
-        <v>73.8</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -880,25 +880,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>89</v>
+      <c r="D17" t="n">
+        <v>86</v>
       </c>
       <c r="E17" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17" t="n">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="G17" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H17" t="n">
-        <v>77.40000000000001</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -906,25 +906,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
+        <v>86</v>
+      </c>
+      <c r="C18" t="n">
+        <v>93</v>
+      </c>
+      <c r="D18" t="n">
+        <v>63</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="F18" t="n">
         <v>83</v>
       </c>
-      <c r="C18" t="n">
-        <v>71</v>
-      </c>
-      <c r="D18" t="n">
-        <v>73</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="F18" t="n">
-        <v>81</v>
-      </c>
       <c r="G18" t="n">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="H18" t="n">
-        <v>78.8</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="19">
@@ -932,51 +932,51 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>97</v>
-      </c>
-      <c r="C19" s="3" t="n">
-        <v>59</v>
+        <v>95</v>
+      </c>
+      <c r="C19" t="n">
+        <v>82</v>
       </c>
       <c r="D19" t="n">
-        <v>83</v>
-      </c>
-      <c r="E19" t="n">
-        <v>88</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>53</v>
+        <v>82</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="F19" t="n">
+        <v>92</v>
       </c>
       <c r="G19" t="n">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="H19" t="n">
-        <v>76</v>
+        <v>80.59999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="n">
-        <v>53</v>
-      </c>
-      <c r="C20" t="n">
-        <v>85</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>93</v>
+      <c r="B20" t="n">
+        <v>67</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="D20" t="n">
+        <v>92</v>
       </c>
       <c r="E20" t="n">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="F20" t="n">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G20" t="n">
-        <v>384</v>
+        <v>441</v>
       </c>
       <c r="H20" t="n">
-        <v>76.8</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="21">
@@ -984,25 +984,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="C21" t="n">
+        <v>71</v>
+      </c>
+      <c r="D21" t="n">
         <v>95</v>
       </c>
-      <c r="C21" t="n">
-        <v>92</v>
-      </c>
-      <c r="D21" t="n">
-        <v>64</v>
-      </c>
-      <c r="E21" t="n">
-        <v>78</v>
-      </c>
-      <c r="F21" s="3" t="n">
-        <v>51</v>
+      <c r="E21" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="F21" t="n">
+        <v>84</v>
       </c>
       <c r="G21" t="n">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="H21" t="n">
-        <v>76</v>
+        <v>80.40000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -1010,129 +1010,129 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>52</v>
-      </c>
-      <c r="D22" s="3" t="n">
-        <v>56</v>
-      </c>
-      <c r="E22" s="3" t="n">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="D22" t="n">
+        <v>63</v>
+      </c>
+      <c r="E22" t="n">
+        <v>60</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G22" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="H22" t="n">
-        <v>63.6</v>
+        <v>64.59999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
-        <v>69</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>80</v>
+      <c r="B23" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="C23" t="n">
+        <v>74</v>
       </c>
       <c r="D23" t="n">
-        <v>73</v>
-      </c>
-      <c r="E23" t="n">
-        <v>74</v>
-      </c>
-      <c r="F23" s="3" t="n">
-        <v>52</v>
+        <v>76</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="F23" t="n">
+        <v>65</v>
       </c>
       <c r="G23" t="n">
-        <v>348</v>
+        <v>399</v>
       </c>
       <c r="H23" t="n">
-        <v>69.59999999999999</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="C24" t="n">
-        <v>83</v>
-      </c>
-      <c r="D24" t="n">
-        <v>82</v>
-      </c>
-      <c r="E24" s="3" t="n">
+      <c r="B24" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="E24" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="F24" t="n">
-        <v>69</v>
+      <c r="F24" s="3" t="n">
+        <v>50</v>
       </c>
       <c r="G24" t="n">
-        <v>378</v>
-      </c>
-      <c r="H24" t="n">
-        <v>75.59999999999999</v>
+        <v>263</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>52.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="n">
-        <v>88</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="D25" t="n">
-        <v>64</v>
+      <c r="B25" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="C25" t="n">
+        <v>73</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>80</v>
       </c>
       <c r="E25" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F25" t="n">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="G25" t="n">
-        <v>400</v>
+        <v>328</v>
       </c>
       <c r="H25" t="n">
-        <v>80</v>
+        <v>65.59999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" t="n">
-        <v>68</v>
+      <c r="B26" s="3" t="n">
+        <v>58</v>
       </c>
       <c r="C26" t="n">
-        <v>69</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="E26" t="n">
-        <v>90</v>
-      </c>
-      <c r="F26" t="n">
-        <v>92</v>
+        <v>71</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>59</v>
       </c>
       <c r="G26" t="n">
-        <v>417</v>
+        <v>341</v>
       </c>
       <c r="H26" t="n">
-        <v>83.40000000000001</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="27">
@@ -1140,25 +1140,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>92</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="D27" s="3" t="n">
-        <v>57</v>
+        <v>78</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D27" t="n">
+        <v>66</v>
       </c>
       <c r="E27" t="n">
-        <v>77</v>
-      </c>
-      <c r="F27" t="n">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>89</v>
       </c>
       <c r="G27" t="n">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="H27" t="n">
-        <v>80.8</v>
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -1166,77 +1166,77 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>85</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="D28" t="n">
-        <v>90</v>
+        <v>63</v>
+      </c>
+      <c r="C28" t="n">
+        <v>78</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>59</v>
       </c>
       <c r="E28" t="n">
-        <v>65</v>
-      </c>
-      <c r="F28" t="n">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>88</v>
       </c>
       <c r="G28" t="n">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="H28" t="n">
-        <v>82.40000000000001</v>
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>89</v>
+      <c r="B29" s="3" t="n">
+        <v>54</v>
       </c>
       <c r="C29" t="n">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D29" t="n">
-        <v>76</v>
-      </c>
-      <c r="E29" s="3" t="n">
-        <v>52</v>
-      </c>
-      <c r="F29" s="3" t="n">
-        <v>55</v>
+        <v>69</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="F29" t="n">
+        <v>84</v>
       </c>
       <c r="G29" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H29" t="n">
-        <v>71.59999999999999</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" t="n">
-        <v>60</v>
-      </c>
-      <c r="C30" s="3" t="n">
+      <c r="B30" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="C30" t="n">
+        <v>94</v>
+      </c>
+      <c r="D30" t="n">
+        <v>70</v>
+      </c>
+      <c r="E30" s="3" t="n">
         <v>52</v>
       </c>
-      <c r="D30" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="E30" t="n">
-        <v>77</v>
-      </c>
-      <c r="F30" t="n">
-        <v>86</v>
+      <c r="F30" s="2" t="n">
+        <v>98</v>
       </c>
       <c r="G30" t="n">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H30" t="n">
-        <v>73.59999999999999</v>
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -1244,103 +1244,103 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
+        <v>62</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="D31" t="n">
+        <v>76</v>
+      </c>
+      <c r="E31" t="n">
         <v>69</v>
       </c>
-      <c r="C31" t="n">
-        <v>86</v>
-      </c>
-      <c r="D31" t="n">
-        <v>81</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>88</v>
-      </c>
       <c r="F31" t="n">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G31" t="n">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="H31" t="n">
-        <v>77.2</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" t="n">
-        <v>86</v>
+      <c r="B32" s="3" t="n">
+        <v>50</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="D32" s="3" t="n">
+        <v>89</v>
+      </c>
+      <c r="D32" t="n">
+        <v>88</v>
+      </c>
+      <c r="E32" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="E32" t="n">
-        <v>70</v>
-      </c>
-      <c r="F32" s="3" t="n">
-        <v>58</v>
+      <c r="F32" t="n">
+        <v>80</v>
       </c>
       <c r="G32" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H32" t="n">
-        <v>72.40000000000001</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" t="n">
-        <v>81</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>97</v>
+      <c r="B33" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>52</v>
       </c>
       <c r="D33" t="n">
+        <v>77</v>
+      </c>
+      <c r="E33" t="n">
         <v>83</v>
       </c>
-      <c r="E33" t="n">
-        <v>67</v>
-      </c>
-      <c r="F33" t="n">
-        <v>72</v>
+      <c r="F33" s="3" t="n">
+        <v>55</v>
       </c>
       <c r="G33" t="n">
-        <v>400</v>
+        <v>358</v>
       </c>
       <c r="H33" t="n">
-        <v>80</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" t="n">
-        <v>67</v>
-      </c>
-      <c r="C34" t="n">
-        <v>63</v>
+      <c r="B34" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>96</v>
       </c>
       <c r="D34" t="n">
-        <v>72</v>
-      </c>
-      <c r="E34" s="2" t="n">
-        <v>91</v>
+        <v>61</v>
+      </c>
+      <c r="E34" t="n">
+        <v>70</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G34" t="n">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H34" t="n">
-        <v>69.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="35">
@@ -1348,25 +1348,25 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>61</v>
-      </c>
-      <c r="C35" t="n">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>89</v>
       </c>
       <c r="D35" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E35" t="n">
-        <v>72</v>
-      </c>
-      <c r="F35" s="2" t="n">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="F35" t="n">
+        <v>87</v>
       </c>
       <c r="G35" t="n">
-        <v>369</v>
+        <v>428</v>
       </c>
       <c r="H35" t="n">
-        <v>73.8</v>
+        <v>85.59999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -1374,25 +1374,25 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C36" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="D36" t="n">
         <v>87</v>
       </c>
-      <c r="D36" t="n">
-        <v>86</v>
-      </c>
-      <c r="E36" s="3" t="n">
-        <v>55</v>
+      <c r="E36" t="n">
+        <v>62</v>
       </c>
       <c r="F36" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G36" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H36" t="n">
-        <v>77.40000000000001</v>
+        <v>76.59999999999999</v>
       </c>
     </row>
     <row r="37">
@@ -1400,25 +1400,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C37" t="n">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D37" t="n">
-        <v>92</v>
-      </c>
-      <c r="E37" s="2" t="n">
-        <v>96</v>
-      </c>
-      <c r="F37" t="n">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="E37" t="n">
+        <v>65</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>95</v>
       </c>
       <c r="G37" t="n">
-        <v>397</v>
+        <v>354</v>
       </c>
       <c r="H37" t="n">
-        <v>79.40000000000001</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="38">
@@ -1426,25 +1426,25 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C38" t="n">
-        <v>77</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="E38" t="n">
-        <v>84</v>
+        <v>66</v>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>98</v>
       </c>
       <c r="F38" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G38" t="n">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="H38" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39">
@@ -1452,25 +1452,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C39" t="n">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>54</v>
-      </c>
-      <c r="E39" s="3" t="n">
-        <v>56</v>
-      </c>
-      <c r="F39" t="n">
-        <v>79</v>
+        <v>59</v>
+      </c>
+      <c r="E39" t="n">
+        <v>66</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>59</v>
       </c>
       <c r="G39" t="n">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="H39" t="n">
-        <v>73.40000000000001</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40">
@@ -1478,51 +1478,51 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C40" t="n">
-        <v>60</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="E40" s="3" t="n">
-        <v>51</v>
-      </c>
-      <c r="F40" t="n">
-        <v>64</v>
+        <v>96</v>
+      </c>
+      <c r="D40" t="n">
+        <v>83</v>
+      </c>
+      <c r="E40" t="n">
+        <v>63</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>97</v>
       </c>
       <c r="G40" t="n">
-        <v>337</v>
+        <v>428</v>
       </c>
       <c r="H40" t="n">
-        <v>67.40000000000001</v>
+        <v>85.59999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="C41" t="n">
-        <v>85</v>
+      <c r="B41" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>53</v>
       </c>
       <c r="D41" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E41" t="n">
-        <v>60</v>
-      </c>
-      <c r="F41" t="n">
-        <v>88</v>
+        <v>70</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>94</v>
       </c>
       <c r="G41" t="n">
-        <v>410</v>
+        <v>351</v>
       </c>
       <c r="H41" t="n">
-        <v>82</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="42">
@@ -1530,77 +1530,77 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>68</v>
-      </c>
-      <c r="C42" t="n">
-        <v>60</v>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="E42" s="3" t="n">
-        <v>58</v>
+        <v>72</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="D42" t="n">
+        <v>63</v>
+      </c>
+      <c r="E42" t="n">
+        <v>62</v>
       </c>
       <c r="F42" s="3" t="n">
         <v>56</v>
       </c>
       <c r="G42" t="n">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="H42" t="n">
-        <v>67.2</v>
+        <v>65.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B43" t="n">
-        <v>90</v>
+      <c r="B43" s="2" t="n">
+        <v>93</v>
       </c>
       <c r="C43" t="n">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D43" t="n">
-        <v>62</v>
-      </c>
-      <c r="E43" s="2" t="n">
-        <v>99</v>
-      </c>
-      <c r="F43" t="n">
-        <v>88</v>
+        <v>73</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>58</v>
       </c>
       <c r="G43" t="n">
-        <v>421</v>
+        <v>338</v>
       </c>
       <c r="H43" t="n">
-        <v>84.2</v>
+        <v>67.59999999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B44" t="n">
-        <v>78</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>97</v>
+      <c r="B44" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="C44" t="n">
+        <v>72</v>
       </c>
       <c r="D44" t="n">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="E44" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F44" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G44" t="n">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="H44" t="n">
-        <v>79</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="45">
@@ -1608,25 +1608,25 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>94</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>98</v>
+        <v>76</v>
+      </c>
+      <c r="C45" t="n">
+        <v>68</v>
       </c>
       <c r="D45" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E45" t="n">
-        <v>77</v>
-      </c>
-      <c r="F45" t="n">
+        <v>84</v>
+      </c>
+      <c r="F45" s="2" t="n">
         <v>86</v>
       </c>
       <c r="G45" t="n">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="H45" t="n">
-        <v>84.40000000000001</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46">
@@ -1634,25 +1634,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>51</v>
-      </c>
-      <c r="C46" t="n">
-        <v>63</v>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="E46" s="3" t="n">
-        <v>52</v>
-      </c>
-      <c r="F46" t="n">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="D46" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="E46" t="n">
+        <v>81</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>58</v>
       </c>
       <c r="G46" t="n">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="H46" t="n">
-        <v>61.6</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="47">
@@ -1660,103 +1660,103 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>92</v>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>97</v>
-      </c>
-      <c r="D47" s="3" t="n">
-        <v>59</v>
+        <v>68</v>
+      </c>
+      <c r="C47" t="n">
+        <v>66</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>82</v>
       </c>
       <c r="E47" t="n">
         <v>77</v>
       </c>
-      <c r="F47" s="3" t="n">
-        <v>51</v>
+      <c r="F47" t="n">
+        <v>70</v>
       </c>
       <c r="G47" t="n">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="H47" t="n">
-        <v>75.2</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B48" t="n">
-        <v>78</v>
+      <c r="B48" s="3" t="n">
+        <v>57</v>
       </c>
       <c r="C48" t="n">
-        <v>88</v>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>95</v>
+        <v>69</v>
+      </c>
+      <c r="D48" t="n">
+        <v>85</v>
       </c>
       <c r="E48" t="n">
-        <v>88</v>
-      </c>
-      <c r="F48" t="n">
-        <v>76</v>
+        <v>85</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>99</v>
       </c>
       <c r="G48" t="n">
-        <v>425</v>
+        <v>395</v>
       </c>
       <c r="H48" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="C49" s="3" t="n">
-        <v>58</v>
+      <c r="B49" t="n">
+        <v>66</v>
+      </c>
+      <c r="C49" t="n">
+        <v>98</v>
       </c>
       <c r="D49" t="n">
-        <v>64</v>
-      </c>
-      <c r="E49" t="n">
         <v>83</v>
       </c>
-      <c r="F49" s="3" t="n">
-        <v>57</v>
+      <c r="E49" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="F49" t="n">
+        <v>82</v>
       </c>
       <c r="G49" t="n">
-        <v>355</v>
+        <v>428</v>
       </c>
       <c r="H49" t="n">
-        <v>71</v>
+        <v>85.59999999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="D50" t="n">
-        <v>89</v>
-      </c>
-      <c r="E50" t="n">
-        <v>74</v>
+      <c r="B50" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="C50" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>53</v>
       </c>
       <c r="F50" t="n">
         <v>67</v>
       </c>
       <c r="G50" t="n">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="H50" t="n">
-        <v>74.40000000000001</v>
+        <v>65.40000000000001</v>
       </c>
     </row>
     <row r="51">
@@ -1764,25 +1764,25 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
+        <v>60</v>
+      </c>
+      <c r="C51" t="n">
         <v>77</v>
       </c>
-      <c r="C51" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="D51" s="3" t="n">
-        <v>51</v>
-      </c>
-      <c r="E51" t="n">
-        <v>69</v>
+      <c r="D51" t="n">
+        <v>67</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>96</v>
       </c>
       <c r="F51" t="n">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="G51" t="n">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="H51" t="n">
-        <v>70</v>
+        <v>78.2</v>
       </c>
     </row>
   </sheetData>
